--- a/Accounting_FormsFillingAssistant_Tests/test_Resources/Test_DB.xlsx
+++ b/Accounting_FormsFillingAssistant_Tests/test_Resources/Test_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EkaterinaSkibina\source\repos\Accounting_FormsFillingAssistant\Accounting_FormsFillingAssistant\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EkaterinaSkibina\source\repos\Accounting_FormsFillingAssistant\Accounting_FormsFillingAssistant_Tests\test_Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7BAB94-093E-4F9D-977C-2A4A80DF6605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5F7BF6-BF25-4F45-AAAB-AC2F312D0E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="2148" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{CF20FDDA-53BB-43C5-A81B-400DB4A1BBFE}"/>
+    <workbookView xWindow="1044" yWindow="2496" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{CF20FDDA-53BB-43C5-A81B-400DB4A1BBFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Организации" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>г. Новосибирск ул. Васильковая д.8</t>
+  </si>
+  <si>
+    <t>Город</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FB833B-2DEC-4CA5-89C4-0AB7F39FE994}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -583,10 +586,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BB0563-C5D8-4F1A-AC52-91F6D5C15025}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +597,7 @@
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,23 +605,26 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1234567890</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9876543456</v>
       </c>
     </row>
